--- a/assets/stages/maps/MapEditor/Room12.xlsx
+++ b/assets/stages/maps/MapEditor/Room12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -35,13 +35,6 @@
     </font>
     <font>
       <name val="等线"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <family val="3"/>
       <b val="1"/>
@@ -50,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -60,24 +53,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -102,16 +77,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,8 +457,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -529,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L1" s="1" t="n">
         <v>1</v>
@@ -603,34 +569,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -666,31 +632,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -701,67 +667,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>-1</v>
-      </c>
       <c r="O3" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>2</v>
@@ -770,25 +736,25 @@
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -799,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-1</v>
@@ -859,31 +825,31 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>1</v>
@@ -897,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -984,10 +950,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1082,10 +1048,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1180,10 +1146,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1278,7 +1244,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="1" t="n">
         <v>1</v>
@@ -1376,7 +1342,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>1</v>
@@ -1387,94 +1353,94 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>-1</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>1</v>
@@ -1485,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1572,7 +1538,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>1</v>
@@ -1583,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1607,10 +1573,10 @@
         <v>-1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>-1</v>
@@ -1667,7 +1633,7 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="1" t="n">
         <v>1</v>
@@ -1681,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-1</v>
@@ -1768,7 +1734,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="1" t="n">
         <v>1</v>
@@ -1779,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1866,7 +1832,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="1" t="n">
         <v>1</v>
@@ -1877,73 +1843,73 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>-1</v>
-      </c>
       <c r="H15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>1</v>
@@ -1975,94 +1941,94 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2073,94 +2039,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2186,58 +2152,58 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>
@@ -2273,7 +2239,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8">
+  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD11 C12:AF12 C13:AD16 C17:D17 G6:AE9 G10:AF11 G13:AF13 G15:AE18 J1:J3 K1:K4 Q9:AF9 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AE7:AF8 AE9:AE15 AF11:AF14">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2291,8 +2257,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2310,8 +2276,12 @@
       <c r="G1" s="2" t="n"/>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
+      <c r="J1" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="L1" s="2" t="n"/>
       <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
@@ -2344,7 +2314,6 @@
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
@@ -2468,9 +2437,7 @@
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
       <c r="AE5" s="1" t="n"/>
-      <c r="AF5" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2504,9 +2471,7 @@
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
-      <c r="AF6" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2540,9 +2505,7 @@
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
       <c r="AE7" s="1" t="n"/>
-      <c r="AF7" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2576,7 +2539,7 @@
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
       <c r="AE8" s="1" t="n"/>
-      <c r="AF8" s="6" t="n"/>
+      <c r="AF8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -2711,7 +2674,7 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="3" t="n"/>
+      <c r="AE12" s="1" t="n"/>
       <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13">
@@ -2745,7 +2708,7 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="3" t="n"/>
+      <c r="AE13" s="1" t="n"/>
       <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14">
@@ -2779,7 +2742,7 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="3" t="n"/>
+      <c r="AE14" s="1" t="n"/>
       <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15">
@@ -2813,16 +2776,16 @@
       <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="4" t="n"/>
+      <c r="AE15" s="1" t="n"/>
       <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -2847,7 +2810,7 @@
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="4" t="n"/>
+      <c r="AE16" s="1" t="n"/>
       <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -2855,7 +2818,7 @@
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="4" t="n"/>
+      <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2881,7 +2844,7 @@
       <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="4" t="n"/>
+      <c r="AE17" s="1" t="n"/>
       <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -2889,33 +2852,33 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="4" t="n"/>
-      <c r="P18" s="4" t="n"/>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" s="4" t="n"/>
-      <c r="S18" s="4" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="U18" s="4" t="n"/>
-      <c r="V18" s="4" t="n"/>
-      <c r="W18" s="4" t="n"/>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
-      <c r="Z18" s="4" t="n"/>
-      <c r="AA18" s="4" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="4" t="n"/>
-      <c r="AD18" s="4" t="n"/>
-      <c r="AE18" s="4" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
+      <c r="W18" s="2" t="n"/>
+      <c r="X18" s="2" t="n"/>
+      <c r="Y18" s="2" t="n"/>
+      <c r="Z18" s="2" t="n"/>
+      <c r="AA18" s="2" t="n"/>
+      <c r="AB18" s="2" t="n"/>
+      <c r="AC18" s="2" t="n"/>
+      <c r="AD18" s="2" t="n"/>
+      <c r="AE18" s="2" t="n"/>
       <c r="AF18" s="2" t="n"/>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room12.xlsx
+++ b/assets/stages/maps/MapEditor/Room12.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -2903,4 +2904,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Room12.xlsx
+++ b/assets/stages/maps/MapEditor/Room12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -36,6 +36,13 @@
     </font>
     <font>
       <name val="等线"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
       <family val="3"/>
       <b val="1"/>
@@ -44,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +61,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -70,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -78,7 +97,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -496,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1" t="n">
         <v>1</v>
@@ -570,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -633,31 +658,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -668,28 +693,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>-1</v>
@@ -698,37 +723,37 @@
         <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>2</v>
@@ -737,25 +762,25 @@
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -766,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-1</v>
@@ -826,31 +851,31 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>1</v>
@@ -864,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -951,10 +976,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1049,10 +1074,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1147,10 +1172,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -1245,7 +1270,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1" t="n">
         <v>1</v>
@@ -1343,7 +1368,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>1</v>
@@ -1354,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1426,10 +1451,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-1</v>
@@ -1441,7 +1466,7 @@
         <v>-1</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>1</v>
@@ -1452,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1550,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1574,10 +1599,10 @@
         <v>-1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>-1</v>
@@ -1634,7 +1659,7 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1" t="n">
         <v>1</v>
@@ -1648,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-1</v>
@@ -1723,16 +1748,16 @@
         <v>-1</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="1" t="n">
         <v>1</v>
@@ -1746,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1844,73 +1869,73 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>1</v>
@@ -1925,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="1" t="n">
         <v>1</v>
@@ -1942,94 +1967,94 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2040,94 +2065,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2153,58 +2178,58 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>
@@ -2240,7 +2265,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD11 C12:AF12 C13:AD16 C17:D17 G6:AE9 G10:AF11 G13:AF13 G15:AE18 J1:J3 K1:K4 Q9:AF9 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AE7:AF8 AE9:AE15 AF11:AF14">
+  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AC13:AC15 AD15:AE15 AE14:AE15">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2258,8 +2283,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AP14" sqref="AP14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5:AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2277,12 +2302,8 @@
       <c r="G1" s="2" t="n"/>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
-      <c r="J1" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
       <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
@@ -2315,6 +2336,7 @@
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
@@ -2437,8 +2459,12 @@
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
-      <c r="AE5" s="1" t="n"/>
-      <c r="AF5" s="2" t="n"/>
+      <c r="AE5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2471,8 +2497,12 @@
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
-      <c r="AE6" s="1" t="n"/>
-      <c r="AF6" s="2" t="n"/>
+      <c r="AE6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2505,8 +2535,12 @@
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
-      <c r="AE7" s="1" t="n"/>
-      <c r="AF7" s="2" t="n"/>
+      <c r="AE7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2539,8 +2573,10 @@
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
-      <c r="AE8" s="1" t="n"/>
-      <c r="AF8" s="2" t="n"/>
+      <c r="AE8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -2573,7 +2609,9 @@
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="n"/>
       <c r="AD9" s="1" t="n"/>
-      <c r="AE9" s="1" t="n"/>
+      <c r="AE9" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF9" s="2" t="n"/>
     </row>
     <row r="10">
@@ -2607,7 +2645,9 @@
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="n"/>
       <c r="AD10" s="1" t="n"/>
-      <c r="AE10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF10" s="2" t="n"/>
     </row>
     <row r="11">
@@ -2641,7 +2681,9 @@
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n"/>
-      <c r="AE11" s="1" t="n"/>
+      <c r="AE11" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF11" s="2" t="n"/>
     </row>
     <row r="12">
@@ -2675,7 +2717,9 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="1" t="n"/>
+      <c r="AE12" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13">
@@ -2709,7 +2753,9 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14">
@@ -2743,7 +2789,9 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="1" t="n"/>
+      <c r="AE14" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15">
@@ -2775,18 +2823,22 @@
       <c r="Z15" s="1" t="n"/>
       <c r="AA15" s="1" t="n"/>
       <c r="AB15" s="1" t="n"/>
-      <c r="AC15" s="1" t="n"/>
+      <c r="AC15" s="1" t="n">
+        <v>1.5</v>
+      </c>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="1" t="n"/>
+      <c r="AE15" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -2809,9 +2861,13 @@
       <c r="Z16" s="1" t="n"/>
       <c r="AA16" s="1" t="n"/>
       <c r="AB16" s="1" t="n"/>
-      <c r="AC16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -2819,7 +2875,7 @@
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
+      <c r="E17" s="3" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2843,9 +2899,13 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="1" t="n"/>
+      <c r="AC17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="1" t="n"/>
+      <c r="AE17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -2853,33 +2913,39 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="2" t="n"/>
-      <c r="X18" s="2" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="Z18" s="2" t="n"/>
-      <c r="AA18" s="2" t="n"/>
-      <c r="AB18" s="2" t="n"/>
-      <c r="AC18" s="2" t="n"/>
-      <c r="AD18" s="2" t="n"/>
-      <c r="AE18" s="2" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="3" t="n"/>
+      <c r="V18" s="3" t="n"/>
+      <c r="W18" s="3" t="n"/>
+      <c r="X18" s="3" t="n"/>
+      <c r="Y18" s="3" t="n"/>
+      <c r="Z18" s="3" t="n"/>
+      <c r="AA18" s="3" t="n"/>
+      <c r="AB18" s="3" t="n"/>
+      <c r="AC18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF18" s="2" t="n"/>
     </row>
   </sheetData>
@@ -2900,7 +2966,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/stages/maps/MapEditor/Room12.xlsx
+++ b/assets/stages/maps/MapEditor/Room12.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2988,4 +2989,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>